--- a/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(Applyテーブル) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(Applyテーブル) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\テーブル定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル名!$A$1:$K$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ceated_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INTEGER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー情報取得</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -226,29 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請時間</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請時間取得</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申請ID</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -261,6 +230,42 @@
   </si>
   <si>
     <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startWork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endWork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startBreak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endBreak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,6 +449,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -453,15 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,9 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,9 +512,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>401955</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -524,7 +529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1060"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -539,7 +544,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -865,23 +870,23 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -891,305 +896,275 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1197,6 +1172,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,23 +1214,23 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="4" width="3.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
-    <col min="7" max="8" width="9.296875" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
+    <col min="2" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1241,10 +1246,10 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1264,355 +1269,385 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14"/>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="1"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="1"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="1"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="1"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="1"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="1"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="1"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="1"/>
       <c r="J34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
@@ -1629,20 +1664,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
